--- a/jpcore-r4/main/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -9,11 +9,14 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AM$39</definedName>
+  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1212" uniqueCount="338">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1424" uniqueCount="371">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0a</t>
+    <t>1.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -48,7 +51,7 @@
     <t>Status</t>
   </si>
   <si>
-    <t>draft</t>
+    <t>active</t>
   </si>
   <si>
     <t>Experimental</t>
@@ -57,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-06T04:15:54+00:00</t>
+    <t>2022-10-24</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -88,6 +91,9 @@
   </si>
   <si>
     <t>Copyright</t>
+  </si>
+  <si>
+    <t>Copyright FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) 一般社団法人日本医療情報学会NeXEHRS課題研究会FHIR日本実装検討WG</t>
   </si>
   <si>
     <t>FHIR Version</t>
@@ -256,23 +262,15 @@
     <t/>
   </si>
   <si>
-    <t>A Diagnostic report - a combination of request information, atomic results, images, interpretation, as well as formatted reports 診断レポート-依頼情報、１項目単位の結果、画像、解釈、およびフォーマットされたレポートの組み合わせ　【JP_CORE】画像結果レポートのプロフィール</t>
-  </si>
-  <si>
-    <t>The findings and interpretation of diagnostic  tests performed on patients, groups of patients, devices, and locations, and/or specimens derived from these. The report includes clinical context such as requesting and provider information, and some mix of atomic results, images, textual and coded interpretations, and formatted representation of diagnostic reports.
-患者、患者のグループ、デバイス、場所、これらから派生した検体に対して実行された診断的検査の結果と解釈。レポートには、依頼情報や依頼者情報などの臨床コンテキスト（文脈）、および１項目単位の結果、画像、テキストとコード化された解釈、および診断レポートのフォーマットされた表現のいくつかの組み合わせが含まれる。
-【JP_CORE】
-画像結果レポートのプロフィール</t>
-  </si>
-  <si>
-    <t>This is intended to capture a single report and is not suitable for use in displaying summary information that covers multiple reports.  For example, this resource has not been designed for laboratory cumulative reporting formats nor detailed structured reports for sequencing.
-これは単一のレポートをキャプチャすることを目的としており、複数のレポートをカバーする要約情報の表示に使用するのには適していない。たとえば、このリソースは、検査結果の累積レポート形式やシーケンスの詳細な構造化レポート用に作られていない。
-【JP-CORE】
-DIagnosticReportリソースの共通プロフィール</t>
-  </si>
-  <si>
-    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+    <t>診断レポート-依頼情報、１項目単位の結果、画像、解釈、およびフォーマットされたレポートの組み合わせ　【JP Core仕様】画像結果レポートのプロフィール。【詳細参照】</t>
+  </si>
+  <si>
+    <t>患者、患者のグループ、デバイス、場所、これらから派生した検体に対して実行された診断的検査の結果と解釈。レポートには、依頼情報や依頼者情報などの臨床コンテキスト（文脈）、および１項目単位の結果、画像、テキストとコード化された解釈、および診断レポートのフォーマットされた表現のいくつかの組み合わせが含まれる。
+【JP Core仕様】画像結果レポートのプロフィール</t>
+  </si>
+  <si>
+    <t>これは単一のレポートをキャプチャすることを目的としており、複数のレポートをカバーする要約情報の表示に使用するのには適していない。たとえば、このリソースは、検査結果の累積レポート形式やシーケンスの詳細な構造化レポート用に作られていない。
+【JP Core仕様】DiagnosticReportリソースの共通プロフィール</t>
   </si>
   <si>
     <t>Event</t>
@@ -291,376 +289,494 @@
   </si>
   <si>
     <t>Y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">id
+</t>
+  </si>
+  <si>
+    <t>Logical id of this artifact</t>
+  </si>
+  <si>
+    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
+  </si>
+  <si>
+    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
+  </si>
+  <si>
+    <t>Resource.id</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meta
+</t>
+  </si>
+  <si>
+    <t>Metadata about the resource</t>
+  </si>
+  <si>
+    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
+  </si>
+  <si>
+    <t>Resource.meta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.implicitRules</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">code
+</t>
+  </si>
+  <si>
+    <t>Language of the resource content</t>
+  </si>
+  <si>
+    <t>The base language in which the resource is written.</t>
+  </si>
+  <si>
+    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
+  </si>
+  <si>
+    <t>preferred</t>
+  </si>
+  <si>
+    <t>A human language.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
+  </si>
+  <si>
+    <t>Resource.language</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.text</t>
+  </si>
+  <si>
+    <t>narrative
+htmlxhtmldisplay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative
+</t>
+  </si>
+  <si>
+    <t>人が読める形式で提示された情報。放射線レポートの場合はレポートの所見が保持される。【詳細参照】</t>
+  </si>
+  <si>
+    <t>リソースの概要を含み、リソースの内容を人間が解釈できる形で表現するために用いられる。すべての構造化データをエンコードする必要はないが、人間がテキストを読むだけで「臨床的に安全」になるように十分な詳細を含める必要がある。リソース定義は、臨床的安全性を確保するために、テキストの中でどのコンテンツを表現すべきかを定義することができる。放射線レポートでは少なくともレポートの所見が格納されることが期待される。また，検索可能な文字列が存在する部位としても利用されることを想定している。</t>
+  </si>
+  <si>
+    <t>放射線レポートの場合、主となる所見を表すエレメントは他のリソースエレメントには存在しない。よってこのドメインリソースを用いてレポートの少なくとも「所見」を人間が可読な状態で保持することが求められる。</t>
+  </si>
+  <si>
+    <t>DomainResource.text</t>
+  </si>
+  <si>
+    <t>Act.text?</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.contained</t>
+  </si>
+  <si>
+    <t>inline resources
+anonymous resourcescontained resources</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resource
+</t>
+  </si>
+  <si>
+    <t>Contained, inline Resources</t>
+  </si>
+  <si>
+    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
+  </si>
+  <si>
+    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
+  </si>
+  <si>
+    <t>DomainResource.contained</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>Additional content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.modifierExtension</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
+  </si>
+  <si>
+    <t>DomainResource.modifierExtension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.identifier</t>
+  </si>
+  <si>
+    <t>ReportID
+Filler IDPlacer ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identifier
+</t>
+  </si>
+  <si>
+    <t>レポートを識別するビジネス識別子。【詳細参照】</t>
+  </si>
+  <si>
+    <t>実行者または他のシステムによってこのレポートに割り当てられた識別子。</t>
+  </si>
+  <si>
+    <t>通常は診断サービスプロバイダの情報システムにより設定される。
+【JP Core仕様】レポート番号
+（放射線情報システム(RIS)による発番が想定されるが、施設によって電子カルテ等のオーダ番号を使う場合もあり得る）</t>
+  </si>
+  <si>
+    <t>このレポートについてクエリを実行するとき、およびFHIRコンテキスト外のレポートにリンクするときにどの識別子を使用するかを知る必要がある</t>
+  </si>
+  <si>
+    <t>Event.identifier</t>
+  </si>
+  <si>
+    <t>OBR-51/ for globally unique filler ID  - OBR-3 , For non-globally unique filler-id the flller/placer number must be combined with the universal service Id -  OBR-2(if present)+OBR-3+OBR-4</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>FiveWs.identifier</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.basedOn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Request
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(CarePlan|ImmunizationRecommendation|http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRequest|http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationRequest_Injection|NutritionOrder|ServiceRequest)
+</t>
+  </si>
+  <si>
+    <t>レポート作成サービスに対する要求の詳細。【詳細参照】</t>
+  </si>
+  <si>
+    <t>検査や診断の依頼の元になったもの。通常はServiceRequestあるいはCarePlan（治験や抗がん剤投与等により検査を行うことが必須の場合、根拠となった事象を追記することは制限しない）</t>
+  </si>
+  <si>
+    <t>通常は１つのリクエストに対し１つの検査結果となるが、状況によって１つのリクエストに対し複数の検査結果が要求され、複数のレポートが作成される場合もあるので注意すること。
+【JP Core仕様】オーダ発生元の ServiceRequest または CarePlan への参照（多くの場合はServiceRequest（オーダ）が存在するが、オーダが発生しない検査も想定される。）</t>
+  </si>
+  <si>
+    <t>このエレメントによりレポートの認可をトレースしたり、レポート作成サービスに対する提案や推奨事項を追跡することができる。</t>
+  </si>
+  <si>
+    <t>Event.basedOn</t>
+  </si>
+  <si>
+    <t>ORC? OBR-2/3?</t>
+  </si>
+  <si>
+    <t>outboundRelationship[typeCode=FLFS].target</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.status</t>
+  </si>
+  <si>
+    <t>診断レポートの状態。【詳細参照】</t>
+  </si>
+  <si>
+    <t>診断レポートの状態</t>
+  </si>
+  <si>
+    <t>FHIRのstringsは1MBを越えてはならない（SHALL NOT）ことに留意すること。
+【JP Core仕様】・診断レポートのステータス
+・定義通りの選択肢（例：preliminary 一次読影, final 二次読影（完了）等）を利用。</t>
+  </si>
+  <si>
+    <t>診断サービスではルーチンに仮確定あるいは不完全なレポートが発生することがある。また、しばしば前に発行されたレポートが取り消されることもある。</t>
+  </si>
+  <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>The status of the diagnostic report.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/diagnostic-report-status|4.0.1</t>
+  </si>
+  <si>
+    <t>Event.status</t>
+  </si>
+  <si>
+    <t>OBR-25 (not 1:1 mapping)</t>
+  </si>
+  <si>
+    <t>statusCode  Note: final and amended are distinguished by whether observation is the subject of a ControlAct event of type "revise"</t>
+  </si>
+  <si>
+    <t>FiveWs.status</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.category</t>
+  </si>
+  <si>
+    <t>Department
+Sub-departmentServiceDiscipline</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CodeableConcept
+</t>
+  </si>
+  <si>
+    <t>レポートを作成した分野を分類するコード。【詳細参照】</t>
+  </si>
+  <si>
+    <t>レポートを作成した臨床分野・部門、または診断サービス（CT, US, MRIなど）を分類するコード。 これは、検索、並べ替え、および表示の目的で使用される。【JP-Core仕様】放射線レポートは ”RAD” をデフォルトとして設定。追加の情報については任意で設定可能。</t>
+  </si>
+  <si>
+    <t>さまざまなカテゴリ化スキームを使用して、複数のカテゴリを使用できる。粒度のレベルは、それぞれの値セットのカテゴリの概念によって定義される。 DiagnosticReport.codeのメタデータや用語の階層を使用して、よりきめ細かいフィルタリングを実行できる。</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>Codes for diagnostic service sections.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pattern:$this}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>OBR-24</t>
+  </si>
+  <si>
+    <t>inboundRelationship[typeCode=COMP].source[classCode=LIST, moodCode=EVN, code &lt; LabService].code</t>
+  </si>
+  <si>
+    <t>FiveWs.class</t>
+  </si>
+  <si>
+    <t>radiology</t>
+  </si>
+  <si>
+    <t>サービスカテゴリー。【詳細参照】</t>
+  </si>
+  <si>
+    <t>レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、MRIなど）を分類するコード。これは、検索、並べ替え、および表示の目的で使用される。</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/v2-0074"/&gt;
+    &lt;code value="RAD"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Type
+</t>
+  </si>
+  <si>
+    <t>この診断レポートの名前/コード。【詳細参照】</t>
+  </si>
+  <si>
+    <t>この診断レポートを表現するコードや名称</t>
+  </si>
+  <si>
+    <t>【JP Core仕様】[画像診断レポート交換手順ガイドライン](https://www.jira-net.or.jp/publishing/files/jesra/JESRA_TR-0042_2018.pdf)「5.1 レポート種別コード」に記載されているLOINCコード [Diagnostic imaging study](https://loinc.org/18748-4/) を指定。コードを指定できない場合はCodeableConceptを使用せずテキスト等を直接コーディングすることも許容されるが、要素間の調整と事前・事後の内容の整合性確保のために独自の構造を提供する必要があるので留意すること。</t>
+  </si>
+  <si>
+    <t>Codes that describe Diagnostic Reports.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/report-codes</t>
+  </si>
+  <si>
+    <t>Event.code</t>
+  </si>
+  <si>
+    <t>OBR-4 (HL7 v2 doesn't provide an easy way to indicate both the ordered test and the performed panel)</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>FiveWs.what[x]</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.id</t>
   </si>
   <si>
     <t xml:space="preserve">string
 </t>
   </si>
   <si>
-    <t>Logical id of this artifact</t>
-  </si>
-  <si>
-    <t>The logical id of the resource, as used in the URL for the resource. Once assigned, this value never changes.</t>
-  </si>
-  <si>
-    <t>The only time that a resource does not have an id is when it is being submitted to the server using a create operation.</t>
-  </si>
-  <si>
-    <t>Resource.id</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Meta
+    <t>Unique id for inter-element referencing</t>
+  </si>
+  <si>
+    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.extension</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
 </t>
   </si>
   <si>
-    <t>Metadata about the resource</t>
-  </si>
-  <si>
-    <t>The metadata about the resource. This is content that is maintained by the infrastructure. Changes to the content might not always be associated with version changes to the resource.</t>
-  </si>
-  <si>
-    <t>Resource.meta</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
+    <t>Extensions are always sliced by (at least) url</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.coding</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
 </t>
   </si>
   <si>
-    <t>DiagnosticReport.implicitRules</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.language</t>
-  </si>
-  <si>
-    <t xml:space="preserve">code
-</t>
-  </si>
-  <si>
-    <t>Language of the resource content</t>
-  </si>
-  <si>
-    <t>The base language in which the resource is written.</t>
-  </si>
-  <si>
-    <t>Language is provided to support indexing and accessibility (typically, services such as text to speech use the language tag). The html language tag in the narrative applies  to the narrative. The language tag on the resource may be used to specify the language of other presentations generated from the data in the resource. Not all the content has to be in the base language. The Resource.language should not be assumed to apply to the narrative automatically. If a language is specified, it should it also be specified on the div element in the html (see rules in HTML5 for information about the relationship between xml:lang and the html lang attribute).</t>
-  </si>
-  <si>
-    <t>preferred</t>
-  </si>
-  <si>
-    <t>A human language.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
-  </si>
-  <si>
-    <t>Resource.language</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.text</t>
-  </si>
-  <si>
-    <t>narrative
-htmlxhtmldisplay</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Narrative
-</t>
-  </si>
-  <si>
-    <t>Text summary of the resource, for human interpretation</t>
-  </si>
-  <si>
-    <t>A human-readable narrative that contains a summary of the resource and can be used to represent the content of the resource to a human. The narrative need not encode all the structured data, but is required to contain sufficient detail to make it "clinically safe" for a human to just read the narrative. Resource definitions may define what content should be represented in the narrative to ensure clinical safety.</t>
-  </si>
-  <si>
-    <t>Contained resources do not have narrative. Resources that are not contained SHOULD have a narrative. In some cases, a resource may only have text with little or no additional discrete data (as long as all minOccurs=1 elements are satisfied).  This may be necessary for data from legacy systems where information is captured as a "text blob" or where text is additionally entered raw or narrated and encoded information is added later.</t>
-  </si>
-  <si>
-    <t>DomainResource.text</t>
-  </si>
-  <si>
-    <t>Act.text?</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.contained</t>
-  </si>
-  <si>
-    <t>inline resources
-anonymous resourcescontained resources</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Resource
-</t>
-  </si>
-  <si>
-    <t>Contained, inline Resources</t>
-  </si>
-  <si>
-    <t>These resources do not have an independent existence apart from the resource that contains them - they cannot be identified independently, and nor can they have their own independent transaction scope.</t>
-  </si>
-  <si>
-    <t>This should never be done when the content can be identified properly, as once identification is lost, it is extremely difficult (and context dependent) to restore it again. Contained resources may have profiles and tags In their meta elements, but SHALL NOT have security labels.</t>
-  </si>
-  <si>
-    <t>DomainResource.contained</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>Additional content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource and that modifies the understanding of the element that contains it and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>Modifier extensions allow for extensions that *cannot* be safely ignored to be clearly distinguished from the vast majority of extensions which can be safely ignored.  This promotes interoperability by eliminating the need for implementers to prohibit the presence of extensions. For further information, see the [definition of modifier extensions](http://hl7.org/fhir/R4/extensibility.html#modifierExtension).</t>
-  </si>
-  <si>
-    <t>DomainResource.modifierExtension</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.identifier</t>
-  </si>
-  <si>
-    <t>ReportID
-Filler IDPlacer ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Identifier
-</t>
-  </si>
-  <si>
-    <t>Business identifier for report レポートを識別するビジネス識別子</t>
-  </si>
-  <si>
-    <t>実行者または他のシステムによってこのレポートに割り当てられた識別子。</t>
-  </si>
-  <si>
-    <t>通常は診断サービスプロバイダの情報システムにより設定される。
-【JP-CORE】
-レポート番号&lt;br/&gt;
-（放射線情報システム(RIS)による発番が想定されるが、施設によって電子カルテ等のオーダ番号を使う場合もあり得る）
-&lt;br/&gt;&lt;br/&gt;</t>
-  </si>
-  <si>
-    <t>このレポートについてクエリを実行するとき、およびFHIRコンテキスト外のレポートにリンクするときにどの識別子を使用するかを知る必要がある</t>
-  </si>
-  <si>
-    <t>Event.identifier</t>
-  </si>
-  <si>
-    <t>OBR-51/ for globally unique filler ID  - OBR-3 , For non-globally unique filler-id the flller/placer number must be combined with the universal service Id -  OBR-2(if present)+OBR-3+OBR-4</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
-  <si>
-    <t>FiveWs.identifier</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.basedOn</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Request
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(CarePlan|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
-</t>
-  </si>
-  <si>
-    <t>What was requested　元になった検査や診断の依頼</t>
-  </si>
-  <si>
-    <t>レポート作成サービスに対する要求の詳細</t>
-  </si>
-  <si>
-    <t>通常は１つのリクエストに対し１つの検査結果となるが、状況によって１つのリクエストに対し複数の検査結果が要求され、複数のレポートが作成される場合もあるので注意すること。
-【JP-CORE】
-オーダ発生元の ServiceRequest または CarePlan への参照（多くの場合はServiceRequest（オーダ）が存在するが、オーダが発生しない検査も想定される。）
-&lt;br/&gt;&lt;br/&gt;</t>
-  </si>
-  <si>
-    <t>このエレメントによりレポートの認可をトレースしたり、レポート作成サービスに対する提案や推奨事項を追跡することができる。</t>
-  </si>
-  <si>
-    <t>Event.basedOn</t>
-  </si>
-  <si>
-    <t>ORC? OBR-2/3?</t>
-  </si>
-  <si>
-    <t>outboundRelationship[typeCode=FLFS].target</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.status</t>
-  </si>
-  <si>
-    <t>registered | partial | preliminary | final +</t>
-  </si>
-  <si>
-    <t>診断レポートの状態</t>
-  </si>
-  <si>
-    <t>FHIRのstringsは1MBを越えてはならない（SHALL NOT）ことに留意すること。
-【JP-CORE】
-・診断レポートのステータス&lt;br/&gt;
-・定義通りの選択肢（例：preliminary 一次読影, final 二次読影（完了）等）を利用。
-&lt;br/&gt;&lt;br/&gt;</t>
-  </si>
-  <si>
-    <t>診断サービスではルーチンに仮確定あるいは不完全なレポートが発生することがある。また、しばしば前に発行されたレポートが取り消されることもある。</t>
-  </si>
-  <si>
-    <t>required</t>
-  </si>
-  <si>
-    <t>The status of the diagnostic report.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnostic-report-status|4.0.1</t>
-  </si>
-  <si>
-    <t>Event.status</t>
-  </si>
-  <si>
-    <t>OBR-25 (not 1:1 mapping)</t>
-  </si>
-  <si>
-    <t>statusCode  Note: final and amended are distinguished by whether observation is the subject of a ControlAct event of type "revise"</t>
-  </si>
-  <si>
-    <t>FiveWs.status</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.category</t>
-  </si>
-  <si>
-    <t>Department
-Sub-departmentServiceDiscipline</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CodeableConcept
-</t>
-  </si>
-  <si>
-    <t>Service category　サービスカテゴリー</t>
-  </si>
-  <si>
-    <t>レポートを作成した臨床分野・部門、または診断サービス（CT, US, MRIなど）を分類するコード。 これは、検索、並べ替え、および表示の目的で使用される。</t>
-  </si>
-  <si>
-    <t>様々なカテゴリのシェーマを用いて複数のカテゴリを設定できる。 カテゴリの情報粒度はvalue setに定義されている。より詳細なフィルタリングの粒度が必要な場合はDiagnosticReport.codeのmetadata等を用いることで対応できる。
-【JP-CORE】
-放射線レポートは ”RAD” をデフォルトとして設定。追加の情報については任意。
-&lt;br/&gt;&lt;br/&gt;</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Codes for diagnostic service sections.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/diagnostic-service-sections</t>
-  </si>
-  <si>
-    <t>OBR-24</t>
-  </si>
-  <si>
-    <t>inboundRelationship[typeCode=COMP].source[classCode=LIST, moodCode=EVN, code &lt; LabService].code</t>
-  </si>
-  <si>
-    <t>FiveWs.class</t>
-  </si>
-  <si>
-    <t>DiagnosticReport.code</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Type
-</t>
-  </si>
-  <si>
-    <t>Name/Code for this diagnostic report　この診断レポートの名前/コード</t>
-  </si>
-  <si>
-    <t>この診断レポートを表現するコードや名称</t>
-  </si>
-  <si>
-    <t>すべての用語の使用がこの一般的なパターンに適合するわけではない。 場合によっては、モデルにcodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係と事前調整および事後調整を管理するための独自の構造を提供する必要がある。 
-【JP-CORE】
-[画像診断レポート交換手順ガイドライン](https://www.jira-net.or.jp/publishing/files/jesra/JESRA_TR-0042_2018.pdf)「5.1 レポート種別コード」に記載されているLOINCコード [Diagnostic imaging study](https://loinc.org/18748-4/) を指定
-&lt;br/&gt;&lt;br/&gt;</t>
-  </si>
-  <si>
-    <t>Codes that describe Diagnostic Reports.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/report-codes</t>
-  </si>
-  <si>
-    <t>Event.code</t>
-  </si>
-  <si>
-    <t>OBR-4 (HL7 v2 doesn't provide an easy way to indicate both the ordered test and the performed panel)</t>
-  </si>
-  <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>FiveWs.what[x]</t>
+    <t>Code defined by a terminology system</t>
+  </si>
+  <si>
+    <t>A reference to a code defined by a terminology system.</t>
+  </si>
+  <si>
+    <t>Codes may be defined very casually in enumerations, or code lists, up to very formal definitions such as SNOMED CT - see the HL7 v3 Core Principles for more information.  Ordering of codings is undefined and SHALL NOT be used to infer meaning. Generally, at most only one of the coding values will be labeled as UserSelected = true.</t>
+  </si>
+  <si>
+    <t>Allows for alternative encodings within a code system, and translations to other code systems.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.coding</t>
+  </si>
+  <si>
+    <t>C*E.1-8, C*E.10-22</t>
+  </si>
+  <si>
+    <t>union(., ./translation)</t>
+  </si>
+  <si>
+    <t>radiologyReportCode</t>
+  </si>
+  <si>
+    <t>放射線レポート項目コード。本ユースケースにおける項目コード推奨値をスライスにて示している。【詳細参照】</t>
+  </si>
+  <si>
+    <t>放射線レポート項目コード。本ユースケースにおける項目コード推奨値をスライスにて示している。</t>
+  </si>
+  <si>
+    <t>推奨コードは必須ではない、派生先によるコード体系を作成し割り振ることを否定しない</t>
+  </si>
+  <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://loinc.org"/&gt;
+  &lt;code value="18748-4"/&gt;
+  &lt;display value="Diagnostic imaging study"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
+    <t>DiagnosticReport.code.text</t>
+  </si>
+  <si>
+    <t>Plain text representation of the concept</t>
+  </si>
+  <si>
+    <t>A human language representation of the concept as seen/selected/uttered by the user who entered the data and/or which represents the intended meaning of the user.</t>
+  </si>
+  <si>
+    <t>Very often the text is the same as a displayName of one of the codings.</t>
+  </si>
+  <si>
+    <t>The codes from the terminologies do not always capture the correct meaning with all the nuances of the human using them, or sometimes there is no appropriate code at all. In these cases, the text is used to capture the full meaning of the source.</t>
+  </si>
+  <si>
+    <t>CodeableConcept.text</t>
+  </si>
+  <si>
+    <t>C*E.9. But note many systems use C*E.2 for this</t>
+  </si>
+  <si>
+    <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
     <t>DiagnosticReport.subject</t>
@@ -670,20 +786,18 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient|Group|Device|Location)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Patient|Group|Device|http://jpfhir.jp/fhir/core/StructureDefinition/JP_Location)
 </t>
   </si>
   <si>
-    <t>The subject of the report - usually, but not always, the patient 　レポートの対象、常にではありませんが、通常は患者</t>
+    <t>レポートの対象、常にではないが、通常は患者。【詳細参照】</t>
   </si>
   <si>
     <t>レポートの対象。 必ずでは無いが、通常、これには「患者」が該当する。</t>
   </si>
   <si>
     <t>参照は実際のFHIRリソースへの参照であり、解決可能である必要がある。解決はURLから取得するか、または、リソースタイプが利用できる場合は絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索する。
-【JP-CORE】
-Patient リソースを参照
-&lt;br/&gt;&lt;br/&gt;</t>
+【JP Core仕様】Patient リソースを参照</t>
   </si>
   <si>
     <t>対象のコンテキストが必要である。</t>
@@ -708,23 +822,21 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Encounter)
 </t>
   </si>
   <si>
-    <t>Health care event when test ordered　依頼時におけるヘルスケアイベント（受診など）</t>
+    <t>依頼時におけるヘルスケアイベント（受診など）。【詳細参照】</t>
   </si>
   <si>
     <t>この診断レポートが関するヘルスケアイベント。</t>
   </si>
   <si>
-    <t>これは通常、レポートの作成が発生するエンカウンターだが、一部のイベントはエンカウンターの正式な完了の前または後に開始される場合がある（例えば入院前の検査）。その場合でも（入院に関連して検査が行われる場合など）、エンカウンターのコンテキストに関連付けられる。
-【JP-CORE】
-このレポートを書く切っ掛けとなる Encounterリソース（例：術前検査の場合、術前訪問） を参照
-&lt;br/&gt;&lt;br/&gt;</t>
-  </si>
-  <si>
-    <t>Enconterコンテキストへのリンクが必要である</t>
+    <t>これは通常、レポートの作成が発生するEncounterだが、一部のイベントはEncounterの正式な完了の前または後に開始される場合がある（例えば入院前の検査）。その場合でも（入院に関連して検査が行われる場合など）、Encounterのコンテキストに関連付けられる。
+【JP Core仕様】このレポートを書く切っ掛けとなる Encounterリソース（例：術前検査の場合、術前訪問） を参照</t>
+  </si>
+  <si>
+    <t>Encounterコンテキストへのリンクが必要である</t>
   </si>
   <si>
     <t>Event.encounter</t>
@@ -750,17 +862,15 @@
 </t>
   </si>
   <si>
-    <t>Clinically relevant time/time-period for report　臨床的に関連する時刻または時間</t>
+    <t>臨床的に関連する時刻または時間。【詳細参照】</t>
   </si>
   <si>
     <t>観測値が関連する時間または期間。レポートの対象が患者である場合、これは通常、読影開始の時間であり、日付/時刻自体のみが提供される。</t>
   </si>
   <si>
     <t>診断手順が患者に対して実行された場合、これは実行された時間を示す。
-【JP-CORE】
-レポート作成日時&lt;br/&gt;
-（DateTimeを採用し、Periodは不使用）
-&lt;br/&gt;&lt;br/&gt;</t>
+【JP Core仕様】レポート作成日時
+（DateTimeを採用し、Periodは不使用）</t>
   </si>
   <si>
     <t>Need to know where in the patient history to file/present this report.</t>
@@ -789,16 +899,14 @@
 </t>
   </si>
   <si>
-    <t>DateTime this version was made　このバージョンが作成された日時</t>
-  </si>
-  <si>
-    <t>このバージョンのレポートがプロバイダーに提供された日時。通常、レポートがレビューおよび検証された後になる。</t>
+    <t>このバージョンが作成された日時。【詳細参照】</t>
+  </si>
+  <si>
+    <t>このバージョンのレポートがプロバイダに提供された日時。通常、レポートがレビューおよび検証された後になる。</t>
   </si>
   <si>
     <t>リソース自体の更新時間とは異なる場合がある。これは、レポートの実際のリリース時間ではなく、レコード（場合によってはセカンダリコピー）のステータスであるため。
-【JP-CORE】
-レポート確定日時
-&lt;br/&gt;&lt;br/&gt;</t>
+【JP Core仕様】レポート確定日時</t>
   </si>
   <si>
     <t>臨床医は、レポートがリリースされた日付を確認できる必要がある。</t>
@@ -820,21 +928,19 @@
 ServicePractitionerDepartmentCompanyAuthorized byDirector</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Practitioner|PractitionerRole|Organization|CareTeam)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_Practitioner)
 </t>
   </si>
   <si>
-    <t>Responsible Diagnostic Service　レポート内容に責任をもつ診断的サービス</t>
+    <t>レポート内容に責任をもつ診断的サービス。【詳細参照】</t>
   </si>
   <si>
     <t>レポートの発行を担当するもの。</t>
   </si>
   <si>
     <t>臨床診断レポートに対して責任を持つもの.
-【JP-CORE】
-レポート確定者&lt;br/&gt;
-（責任としては performaer &gt; resultsInterpreter という関係性）
-&lt;br/&gt;&lt;br/&gt;</t>
+【JP Core仕様】レポート確定者
+（責任としては performer &gt; resultsInterpreter という関係性）</t>
   </si>
   <si>
     <t>結果に関する問い合わせがある場合は、誰に連絡を取るべきかを知る必要がある。また、データ二次分析のためにレポートの発生源を追跡する必要が生じる場合もある。</t>
@@ -859,19 +965,14 @@
 Reported by</t>
   </si>
   <si>
-    <t>Primary result interpreter　結果の一次解釈者</t>
+    <t>結果の一次解釈者。【詳細参照】</t>
   </si>
   <si>
     <t>レポートの結論や読影に関わる医師や組織</t>
   </si>
   <si>
     <t>必ずしも診断レポートに対して責任を持つものを示すわけでは無い。
-【JP-CORE】
-レポートの関係者（作成者、読影者、確定者など）を列挙
-&lt;br/&gt;&lt;br/&gt;
-【議論】&lt;br/&gt;
-但し、一次読影や二次読影などの役割 (Practioner Roll) の指定方法はペンディング
-&lt;br/&gt;&lt;br/&gt;</t>
+【JP Core仕様】但し、一次読影や二次読影などの役割 (Practitioner Roll) の指定方法はペンディング</t>
   </si>
   <si>
     <t>OBR-32, PRT-8 (where this PRT-4-Participation = "PI")</t>
@@ -884,16 +985,15 @@
 </t>
   </si>
   <si>
-    <t>Specimens this report is based on　レポートのもとになった検体</t>
+    <t>【JP Core仕様】未使用
+・画像ガイド下生検で得られる検体の可能性は有り得るが、放射線レポートでは特には規定しない【詳細参照】</t>
   </si>
   <si>
     <t>診断レポートの対象となる検体</t>
   </si>
   <si>
-    <t>【JP-CORE】
-・未使用&lt;br/&gt;
-・画像ガイド下生検で得られる検体の可能性は有り得るが、本項目は病理レポートで利用されることを想定し、放射線レポートでは特には規定しない
-&lt;br/&gt;&lt;br/&gt;</t>
+    <t>【JP Core仕様】未使用
+・画像ガイド下生検で得られる検体の可能性は有り得るが、本項目は病理レポートで利用されることを想定し、放射線レポートでは特には規定しない</t>
   </si>
   <si>
     <t>レポートの対象となる取集された検体についての情報をレポートできる必要がある。</t>
@@ -913,16 +1013,14 @@
 </t>
   </si>
   <si>
-    <t>Observations　検査結果</t>
-  </si>
-  <si>
-    <t>診断レポートの一部となるObservationリソース</t>
+    <t>診断レポートの一部となるObservationリソース【詳細参照】</t>
+  </si>
+  <si>
+    <t>【JP Core仕様】計測情報などの付随所見をObservationリソースとして定義できるが、該当するコードが定義できないため放射線レポートでは未定義とする。関連する検体検査結果（腎機能や感染症情報等）を保持することは可能。</t>
   </si>
   <si>
     <t>Observationはさらにobservationを含むことができる。
-【JP-CORE】
-計測情報などの付随所見をObservationリソースとして定義できるが、該当するコードが定義できないため放射線レポートでは未定義とする。関連する検体検査結果（腎機能や感染症情報等）を保持することは可能。
-&lt;br/&gt;&lt;br/&gt;</t>
+【JP Core仕様】計測情報などの付随所見をObservationリソースとして定義できるが、該当するコードが定義できないため放射線レポートでは未定義とする。関連する検体検査結果（腎機能や感染症情報等）を保持することは可能。</t>
   </si>
   <si>
     <t>結果のグループ化が任意だが、意味のある個別の結果または結果のグループをサポートする必要がある。</t>
@@ -937,20 +1035,18 @@
     <t>DiagnosticReport.imagingStudy</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(ImagingStudy)
+    <t xml:space="preserve">Reference(http://jpfhir.jp/fhir/core/StructureDefinition/JP_ImagingStudy_Radiology)
 </t>
   </si>
   <si>
-    <t>Reference to full details of imaging associated with the diagnostic report　診断レポートに関連づけれらた画像検査の詳細情報への参照</t>
+    <t>診断レポートに関連づけれらた画像検査の詳細情報への参照。【詳細参照】</t>
   </si>
   <si>
     <t>実行された画像検査の完全な詳細に関する1つあるいは複数のリンク。通常、これは DICOM対応モダリティによって実行されるイメージングだが、DICOMであることが必須ではない。完全に有効な PACS ビューアは、この情報を使用してソース イメージのビューを提供できる。</t>
   </si>
   <si>
-    <t>【JP-CORE】
-・対象となるImagingStudyリソースを参照&lt;br/&gt;
-・放射線レポートでは検査実施後には必須（複数もあり得る）
-&lt;br/&gt;&lt;br/&gt;</t>
+    <t>【JP Core仕様】・対象となるImagingStudyリソースを参照
+・放射線レポートでは検査実施後には必須（複数もあり得る）</t>
   </si>
   <si>
     <t>outboundRelationship[typeCode=COMP].target[classsCode=DGIMG, moodCode=EVN]</t>
@@ -967,15 +1063,13 @@
 </t>
   </si>
   <si>
-    <t>Key images associated with this report　このレポートに関連づけられたキー画像</t>
+    <t>このレポートに関連づけられたキー画像。【詳細参照】</t>
   </si>
   <si>
     <t>このレポートに関連付けられているキーイメージの一覧。</t>
   </si>
   <si>
-    <t>【JP仕様】&lt;br/&gt;
-キーイメージを設定
-&lt;br/&gt;&lt;br/&gt;</t>
+    <t>【JP Core仕様】キーイメージを設定</t>
   </si>
   <si>
     <t>多くの診断サービスには、サービスの一部としてレポートに画像が含まれている。</t>
@@ -987,25 +1081,7 @@
     <t>DiagnosticReport.media.id</t>
   </si>
   <si>
-    <t>Unique id for inter-element referencing</t>
-  </si>
-  <si>
-    <t>Unique id for the element within a resource (for internal references). This may be any string value that does not contain spaces.</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
     <t>DiagnosticReport.media.extension</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element. To make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
   </si>
   <si>
     <t>DiagnosticReport.media.modifierExtension</t>
@@ -1034,11 +1110,8 @@
     <t>イメージに関するコメント。通常、これは画像が含まれる理由を説明したり、依頼者の注意を重要な内容に引き付けるために使用される。</t>
   </si>
   <si>
-    <t>コメントは、画像と共に表示される。レポートでは画像の内容に関する追加の議論が、DiagnosticReport.textやDiagnosticReport.conclusionなどの他のセクションに含まれるのが一般的です。
-&lt;br/&gt;&lt;br/&gt;
-【JP仕様】&lt;br/&gt;
-キーイメージの説明
-&lt;br/&gt;&lt;br/&gt;</t>
+    <t>コメントは、画像と共に表示される。レポートでは画像の内容に関する追加の議論が、DiagnosticReport.textやDiagnosticReport.conclusionなどの他のセクションに含まれるのが一般的である。
+【JP Core仕様】キーイメージの説明</t>
   </si>
   <si>
     <t>レポート作成者は、レポートに含まれる各画像についてコメントを付け加える</t>
@@ -1061,10 +1134,7 @@
   </si>
   <si>
     <t>参照は実際のFHIRリソースへの参照であり、解決可能である必要がある。解決はURLから取得するか、または、リソースタイプが利用できる場合は絶対参照を正規URLとして扱い、ローカルレジストリ/リポジトリで検索する。
-&lt;br/&gt;&lt;br/&gt;
-【JP仕様】&lt;br/&gt;
-キーイメージの参照先
-&lt;br/&gt;&lt;br/&gt;</t>
+【JP Core仕様】キーイメージの参照先</t>
   </si>
   <si>
     <t>.value.reference</t>
@@ -1077,16 +1147,14 @@
 </t>
   </si>
   <si>
-    <t>Clinical conclusion (interpretation) of test results　検査結果の臨床的結論（解釈）</t>
+    <t>検査結果の臨床的結論（解釈）。【詳細参照】</t>
   </si>
   <si>
     <t>診断報告書の簡潔かつ臨床的に文脈化された要約結論(interpretation/impression)</t>
   </si>
   <si>
     <t>FHIRのstringsは1MBを越えてはならない（SHALL NOT）ことに留意すること。
-【JP-CORE】
-放射線レポートの結果/結論/インプレッションの文章を記載
-&lt;br/&gt;&lt;br/&gt;</t>
+【JP Core仕様】放射線レポートの結果/結論/インプレッションの文章を記載</t>
   </si>
   <si>
     <t>基本的な結果で、失われない結論を提供する必要がある。</t>
@@ -1101,17 +1169,15 @@
     <t>DiagnosticReport.conclusionCode</t>
   </si>
   <si>
-    <t>Codes for the clinical conclusion of test results　検査結果の臨床的結論（解釈）用のコード</t>
+    <t>検査結果の臨床的結論（解釈）用のコード。【詳細参照】</t>
   </si>
   <si>
     <t>診断レポートの要約の結論 (interpretation/impression) を表す 1 つ以上のコード。</t>
   </si>
   <si>
     <t>すべての用語の使用がこの一般的なパターンに適合するわけではない。 場合によっては、モデルにcodeableConceptを使用せず、コーディングを直接使用して、テキスト、コーディング、翻訳、および要素間の関係と事前調整および事後調整を管理するための独自の構造を提供する必要がある。 
-【JP-CORE】
-・放射線レポートの所見の結論となるコードを設定。&lt;br/&gt;
-・例えば、ICD 病名コード
-&lt;br/&gt;&lt;br/&gt;</t>
+【JP Core仕様】・放射線レポートの所見の結論となるコードを設定。
+・例えば、ICD 病名コード</t>
   </si>
   <si>
     <t>Diagnosis codes provided as adjuncts to the report.</t>
@@ -1130,16 +1196,14 @@
 </t>
   </si>
   <si>
-    <t>Entire report as issued　発行されたレポート全体</t>
+    <t>発行されたレポート全体。【詳細参照】</t>
   </si>
   <si>
     <t>診断サービスによって発行された結果全体のリッチ テキスト表現。複数の形式は許可されるが、意味的に等価である必要がある。</t>
   </si>
   <si>
     <t>"application/pdf" がこのコンテキストで最も信頼性が高く、相互運用可能なアプリケーションとして推奨される。
-【JP-CORE】
-添付するXHTMLやPDFなどの文書
-&lt;br/&gt;&lt;br/&gt;</t>
+【JP Core仕様】添付するXHTMLやPDFなどの文書</t>
   </si>
   <si>
     <t>臨床での再現性を担保するために、独自の完全にフォーマットされたレポートを提供可能である。</t>
@@ -1274,6 +1338,21 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
+  <dxfs count="2">
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor indexed="22"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="22"/>
+        <i val="true"/>
+      </font>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -1394,55 +1473,55 @@
         <v>24</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1452,7 +1531,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AM33"/>
+  <dimension ref="A1:AM39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1462,262 +1541,262 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="40.37890625" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="62.21875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="2" max="2" width="20.44921875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="62.22265625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="200.0703125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="91.46484375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="48.453125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.54296875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.546875" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="20.58984375" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
     <col min="31" max="31" width="34.859375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
     <col min="36" max="36" width="29.69921875" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="171.6640625" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="171.66796875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="121.93359375" customWidth="true" bestFit="true"/>
     <col min="39" max="39" width="36.91796875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B1" t="s" s="1">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C1" t="s" s="1">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D1" t="s" s="1">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E1" t="s" s="1">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F1" t="s" s="1">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G1" t="s" s="1">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H1" t="s" s="1">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I1" t="s" s="1">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="J1" t="s" s="1">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="K1" t="s" s="1">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="L1" t="s" s="1">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M1" t="s" s="1">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N1" t="s" s="1">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O1" t="s" s="1">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P1" t="s" s="1">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q1" t="s" s="1">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="R1" t="s" s="1">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="S1" t="s" s="1">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="T1" t="s" s="1">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="U1" t="s" s="1">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="V1" t="s" s="1">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="W1" t="s" s="1">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="X1" t="s" s="1">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Y1" t="s" s="1">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z1" t="s" s="1">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA1" t="s" s="1">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="AB1" t="s" s="1">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="AC1" t="s" s="1">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="AD1" t="s" s="1">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="AE1" t="s" s="1">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AF1" t="s" s="1">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="AG1" t="s" s="1">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AH1" t="s" s="1">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="AI1" t="s" s="1">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="AJ1" t="s" s="1">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="AK1" t="s" s="1">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="AL1" t="s" s="1">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AM1" t="s" s="1">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="K2" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="L2" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M2" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P2" s="2"/>
       <c r="Q2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD2" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE2" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="AF2" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG2" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="R2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD2" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE2" t="s" s="2">
-        <v>30</v>
-      </c>
-      <c r="AF2" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG2" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AH2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI2" t="s" s="2">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AJ2" t="s" s="2">
         <v>84</v>
@@ -1729,29 +1808,29 @@
         <v>86</v>
       </c>
       <c r="AM2" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
         <v>87</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F3" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I3" t="s" s="2">
         <v>89</v>
@@ -1770,99 +1849,99 @@
       </c>
       <c r="N3" s="2"/>
       <c r="O3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P3" s="2"/>
       <c r="Q3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE3" t="s" s="2">
         <v>94</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
         <v>95</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F4" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I4" t="s" s="2">
         <v>89</v>
@@ -1879,96 +1958,96 @@
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P4" s="2"/>
       <c r="Q4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE4" t="s" s="2">
         <v>99</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
         <v>101</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F5" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H5" t="s" s="2">
         <v>89</v>
@@ -1990,102 +2069,102 @@
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P5" s="2"/>
       <c r="Q5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE5" t="s" s="2">
         <v>106</v>
       </c>
       <c r="AF5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI5" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
         <v>107</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F6" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J6" t="s" s="2">
         <v>108</v>
@@ -2101,26 +2180,26 @@
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P6" s="2"/>
       <c r="Q6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W6" t="s" s="2">
         <v>112</v>
@@ -2132,49 +2211,49 @@
         <v>114</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE6" t="s" s="2">
         <v>115</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AM6" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
         <v>116</v>
       </c>
@@ -2184,19 +2263,19 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s" s="2">
         <v>118</v>
@@ -2212,80 +2291,80 @@
       </c>
       <c r="N7" s="2"/>
       <c r="O7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P7" s="2"/>
       <c r="Q7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE7" t="s" s="2">
         <v>122</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL7" t="s" s="2">
         <v>123</v>
       </c>
       <c r="AM7" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
         <v>124</v>
       </c>
@@ -2295,19 +2374,19 @@
       </c>
       <c r="D8" s="2"/>
       <c r="E8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J8" t="s" s="2">
         <v>126</v>
@@ -2323,80 +2402,80 @@
       </c>
       <c r="N8" s="2"/>
       <c r="O8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P8" s="2"/>
       <c r="Q8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE8" t="s" s="2">
         <v>130</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG8" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL8" t="s" s="2">
         <v>131</v>
       </c>
       <c r="AM8" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
         <v>132</v>
       </c>
@@ -2406,19 +2485,19 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J9" t="s" s="2">
         <v>134</v>
@@ -2434,80 +2513,80 @@
       </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P9" s="2"/>
       <c r="Q9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>138</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG9" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI9" t="s" s="2">
         <v>139</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL9" t="s" s="2">
         <v>131</v>
       </c>
       <c r="AM9" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>140</v>
       </c>
@@ -2517,19 +2596,19 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H10" t="s" s="2">
         <v>89</v>
       </c>
       <c r="I10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>134</v>
@@ -2547,80 +2626,80 @@
         <v>143</v>
       </c>
       <c r="O10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P10" s="2"/>
       <c r="Q10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE10" t="s" s="2">
         <v>144</v>
       </c>
       <c r="AF10" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG10" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>139</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL10" t="s" s="2">
         <v>131</v>
       </c>
       <c r="AM10" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
         <v>145</v>
       </c>
@@ -2630,16 +2709,16 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I11" t="s" s="2">
         <v>89</v>
@@ -2660,62 +2739,62 @@
         <v>151</v>
       </c>
       <c r="O11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P11" s="2"/>
       <c r="Q11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>145</v>
       </c>
       <c r="AF11" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG11" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH11" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI11" t="s" s="2">
         <v>100</v>
@@ -2743,19 +2822,19 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G12" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J12" t="s" s="2">
         <v>158</v>
@@ -2773,62 +2852,62 @@
         <v>162</v>
       </c>
       <c r="O12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P12" s="2"/>
       <c r="Q12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE12" t="s" s="2">
         <v>156</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>100</v>
@@ -2843,16 +2922,16 @@
         <v>165</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
         <v>166</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
@@ -2862,7 +2941,7 @@
         <v>88</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>89</v>
@@ -2886,26 +2965,26 @@
         <v>170</v>
       </c>
       <c r="O13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P13" s="2"/>
       <c r="Q13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W13" t="s" s="2">
         <v>171</v>
@@ -2917,19 +2996,19 @@
         <v>173</v>
       </c>
       <c r="Z13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE13" t="s" s="2">
         <v>166</v>
@@ -2941,7 +3020,7 @@
         <v>88</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>100</v>
@@ -2959,7 +3038,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
         <v>178</v>
       </c>
@@ -2969,16 +3048,16 @@
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I14" t="s" s="2">
         <v>89</v>
@@ -2997,26 +3076,26 @@
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P14" s="2"/>
       <c r="Q14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W14" t="s" s="2">
         <v>184</v>
@@ -3028,55 +3107,55 @@
         <v>186</v>
       </c>
       <c r="Z14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB14" t="s" s="2">
-        <v>79</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="AB14" s="2"/>
       <c r="AC14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>79</v>
+        <v>188</v>
       </c>
       <c r="AE14" t="s" s="2">
         <v>178</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="AH14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI14" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="AM14" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="B15" s="2"/>
+        <v>178</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>192</v>
+      </c>
       <c r="C15" t="s" s="2">
-        <v>191</v>
+        <v>179</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
@@ -3086,10 +3165,10 @@
         <v>88</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>89</v>
@@ -3098,2112 +3177,2800 @@
         <v>180</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>194</v>
+        <v>183</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P15" s="2"/>
       <c r="Q15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R15" t="s" s="2">
+        <v>195</v>
+      </c>
+      <c r="S15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W15" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="X15" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="Y15" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD15" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE15" t="s" s="2">
+        <v>178</v>
+      </c>
+      <c r="AF15" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG15" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="R15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W15" t="s" s="2">
-        <v>112</v>
-      </c>
-      <c r="X15" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="Y15" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD15" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE15" t="s" s="2">
-        <v>190</v>
-      </c>
-      <c r="AF15" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AG15" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="AH15" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI15" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ15" t="s" s="2">
-        <v>197</v>
+        <v>80</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>200</v>
+        <v>191</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I16" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>206</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>207</v>
-      </c>
+        <v>200</v>
+      </c>
+      <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P16" s="2"/>
       <c r="Q16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>79</v>
+        <v>112</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>79</v>
+        <v>202</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH16" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI16" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>211</v>
+        <v>206</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>213</v>
+        <v>80</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s" s="2">
         <v>88</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="M17" t="s" s="2">
-        <v>217</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>218</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P17" s="2"/>
       <c r="Q17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>88</v>
       </c>
       <c r="AH17" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI17" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>219</v>
+        <v>80</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>220</v>
+        <v>80</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>222</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
-        <v>224</v>
+        <v>133</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I18" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>225</v>
+        <v>134</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>226</v>
+        <v>135</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>227</v>
+        <v>214</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>229</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P18" s="2"/>
       <c r="Q18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA18" t="s" s="2">
+        <v>215</v>
+      </c>
+      <c r="AB18" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AC18" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD18" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AE18" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AF18" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG18" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="R18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD18" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE18" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="AF18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="AH18" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI18" t="s" s="2">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>230</v>
+        <v>80</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>231</v>
+        <v>80</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>232</v>
+        <v>212</v>
       </c>
       <c r="AM18" t="s" s="2">
-        <v>233</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>234</v>
+        <v>218</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
-        <v>235</v>
+        <v>80</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F19" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I19" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>236</v>
+        <v>219</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>237</v>
+        <v>220</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>239</v>
+        <v>222</v>
       </c>
       <c r="N19" t="s" s="2">
-        <v>240</v>
+        <v>223</v>
       </c>
       <c r="O19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P19" s="2"/>
       <c r="Q19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>187</v>
+      </c>
+      <c r="AB19" s="2"/>
+      <c r="AC19" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG19" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="R19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>234</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="AH19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI19" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>241</v>
+        <v>225</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>242</v>
+        <v>226</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>243</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="B20" s="2"/>
+        <v>218</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>227</v>
+      </c>
       <c r="C20" t="s" s="2">
-        <v>245</v>
+        <v>80</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F20" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>247</v>
+        <v>228</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>248</v>
+        <v>229</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="N20" t="s" s="2">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="O20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P20" s="2"/>
       <c r="Q20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R20" t="s" s="2">
+        <v>231</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG20" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="R20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD20" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE20" t="s" s="2">
-        <v>244</v>
-      </c>
-      <c r="AF20" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG20" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AH20" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>251</v>
+        <v>80</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>254</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
-        <v>256</v>
+        <v>80</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F21" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I21" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>246</v>
+        <v>208</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>257</v>
+        <v>233</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>258</v>
+        <v>234</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>259</v>
+        <v>235</v>
       </c>
       <c r="N21" t="s" s="2">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="O21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P21" s="2"/>
       <c r="Q21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>251</v>
+        <v>80</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>260</v>
+        <v>238</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>254</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
-        <v>79</v>
+        <v>241</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F22" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G22" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>262</v>
+        <v>242</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>263</v>
+        <v>243</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>265</v>
+        <v>245</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>266</v>
+        <v>246</v>
       </c>
       <c r="O22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P22" s="2"/>
       <c r="Q22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>261</v>
+        <v>240</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>79</v>
+        <v>247</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>267</v>
+        <v>248</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>210</v>
+        <v>249</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>79</v>
+        <v>250</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>270</v>
+        <v>253</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>271</v>
+        <v>254</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>272</v>
+        <v>255</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>273</v>
+        <v>256</v>
       </c>
       <c r="N23" t="s" s="2">
-        <v>274</v>
+        <v>257</v>
       </c>
       <c r="O23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P23" s="2"/>
       <c r="Q23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>79</v>
+        <v>258</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>79</v>
+        <v>261</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>79</v>
+        <v>263</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I24" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>278</v>
+        <v>264</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>279</v>
+        <v>265</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>281</v>
-      </c>
-      <c r="N24" s="2"/>
+        <v>267</v>
+      </c>
+      <c r="N24" t="s" s="2">
+        <v>268</v>
+      </c>
       <c r="O24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P24" s="2"/>
       <c r="Q24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>277</v>
+        <v>262</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>79</v>
+        <v>269</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>79</v>
+        <v>270</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>282</v>
+        <v>271</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>79</v>
+        <v>272</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I25" t="s" s="2">
         <v>89</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P25" s="2"/>
       <c r="Q25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="AM25" t="s" s="2">
-        <v>79</v>
+        <v>282</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
-        <v>79</v>
+        <v>284</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F26" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G26" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I26" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>90</v>
+        <v>285</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="M26" s="2"/>
-      <c r="N26" s="2"/>
+        <v>287</v>
+      </c>
+      <c r="M26" t="s" s="2">
+        <v>288</v>
+      </c>
+      <c r="N26" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P26" s="2"/>
       <c r="Q26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD26" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE26" t="s" s="2">
+        <v>283</v>
+      </c>
+      <c r="AF26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG26" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="R26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD26" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE26" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="AF26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG26" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="AH26" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI26" t="s" s="2">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>79</v>
+        <v>291</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>79</v>
+        <v>293</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
-        <v>133</v>
+        <v>295</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G27" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I27" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>134</v>
+        <v>285</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>135</v>
+        <v>296</v>
       </c>
       <c r="L27" t="s" s="2">
         <v>297</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="N27" s="2"/>
+        <v>298</v>
+      </c>
+      <c r="N27" t="s" s="2">
+        <v>289</v>
+      </c>
       <c r="O27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P27" s="2"/>
       <c r="Q27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD27" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE27" t="s" s="2">
+        <v>294</v>
+      </c>
+      <c r="AF27" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG27" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="R27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD27" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE27" t="s" s="2">
-        <v>298</v>
-      </c>
-      <c r="AF27" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG27" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AH27" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI27" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>79</v>
+        <v>290</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>79</v>
+        <v>299</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>79</v>
+        <v>293</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
-        <v>300</v>
+        <v>80</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F28" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H28" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>134</v>
+        <v>301</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>137</v>
+        <v>304</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>143</v>
+        <v>305</v>
       </c>
       <c r="O28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P28" s="2"/>
       <c r="Q28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="AF28" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG28" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="R28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>303</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG28" t="s" s="2">
-        <v>78</v>
-      </c>
       <c r="AH28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>79</v>
+        <v>306</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>131</v>
+        <v>249</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>79</v>
+        <v>308</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>90</v>
+        <v>309</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>307</v>
+        <v>312</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P29" s="2"/>
       <c r="Q29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD29" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE29" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="AF29" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG29" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="R29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD29" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE29" t="s" s="2">
-        <v>304</v>
-      </c>
-      <c r="AF29" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG29" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="AH29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI29" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>79</v>
+        <v>314</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I30" t="s" s="2">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>311</v>
+        <v>317</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>313</v>
+        <v>319</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P30" s="2"/>
       <c r="Q30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD30" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE30" t="s" s="2">
+        <v>316</v>
+      </c>
+      <c r="AF30" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG30" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="R30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD30" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE30" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="AF30" t="s" s="2">
-        <v>88</v>
-      </c>
-      <c r="AG30" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="AH30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI30" t="s" s="2">
         <v>100</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
-        <v>317</v>
+        <v>323</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I31" t="s" s="2">
-        <v>79</v>
+        <v>89</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>90</v>
+        <v>324</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>319</v>
+        <v>326</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>320</v>
+        <v>327</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>321</v>
+        <v>328</v>
       </c>
       <c r="O31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P31" s="2"/>
       <c r="Q31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD31" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE31" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="AF31" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG31" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="R31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="S31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="T31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="U31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="V31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="W31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="X31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD31" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE31" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="AF31" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG31" t="s" s="2">
-        <v>88</v>
-      </c>
       <c r="AH31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI31" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>323</v>
+        <v>315</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F32" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="G32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>180</v>
+        <v>208</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>325</v>
+        <v>209</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>326</v>
-      </c>
-      <c r="M32" t="s" s="2">
-        <v>327</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="M32" s="2"/>
       <c r="N32" s="2"/>
       <c r="O32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P32" s="2"/>
       <c r="Q32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="R32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="S32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="T32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="U32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="V32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>184</v>
+        <v>80</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>328</v>
+        <v>80</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>329</v>
+        <v>80</v>
       </c>
       <c r="Z32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AA32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AC32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AD32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>324</v>
+        <v>211</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="AG32" t="s" s="2">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="AH32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AI32" t="s" s="2">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>322</v>
+        <v>80</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>330</v>
+        <v>212</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
         <v>331</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
-        <v>79</v>
+        <v>133</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F33" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>332</v>
+        <v>134</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>333</v>
+        <v>135</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>334</v>
+        <v>214</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>335</v>
-      </c>
-      <c r="N33" t="s" s="2">
-        <v>336</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="N33" s="2"/>
       <c r="O33" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="P33" s="2"/>
       <c r="Q33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE33" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="AF33" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG33" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="R33" t="s" s="2">
+      <c r="AH33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI33" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK33" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL33" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AM33" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" hidden="true">
+      <c r="A34" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="B34" s="2"/>
+      <c r="C34" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="D34" s="2"/>
+      <c r="E34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F34" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="S33" t="s" s="2">
+      <c r="G34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H34" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="I34" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J34" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="K34" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="L34" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="M34" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="N34" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="O34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P34" s="2"/>
+      <c r="Q34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE34" t="s" s="2">
+        <v>336</v>
+      </c>
+      <c r="AF34" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG34" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="T33" t="s" s="2">
+      <c r="AH34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI34" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="AJ34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK34" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL34" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="AM34" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="35" hidden="true">
+      <c r="A35" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="B35" s="2"/>
+      <c r="C35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D35" s="2"/>
+      <c r="E35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F35" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J35" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="K35" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="L35" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="M35" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="N35" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="O35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P35" s="2"/>
+      <c r="Q35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL35" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="AM35" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="B36" s="2"/>
+      <c r="C36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D36" s="2"/>
+      <c r="E36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="F36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G36" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I36" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="J36" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="K36" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="L36" t="s" s="2">
+        <v>346</v>
+      </c>
+      <c r="M36" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="N36" s="2"/>
+      <c r="O36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P36" s="2"/>
+      <c r="Q36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE36" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="AF36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AG36" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI36" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK36" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AL36" t="s" s="2">
+        <v>348</v>
+      </c>
+      <c r="AM36" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="B37" s="2"/>
+      <c r="C37" t="s" s="2">
+        <v>350</v>
+      </c>
+      <c r="D37" s="2"/>
+      <c r="E37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="G37" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J37" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="K37" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="L37" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>354</v>
+      </c>
+      <c r="O37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P37" s="2"/>
+      <c r="Q37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE37" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="AF37" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG37" t="s" s="2">
+        <v>88</v>
+      </c>
+      <c r="AH37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI37" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ37" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK37" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AL37" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="AM37" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="38" hidden="true">
+      <c r="A38" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="B38" s="2"/>
+      <c r="C38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D38" s="2"/>
+      <c r="E38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F38" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="U33" t="s" s="2">
+      <c r="G38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="H38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J38" t="s" s="2">
+        <v>180</v>
+      </c>
+      <c r="K38" t="s" s="2">
+        <v>358</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="M38" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="N38" s="2"/>
+      <c r="O38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P38" s="2"/>
+      <c r="Q38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W38" t="s" s="2">
+        <v>184</v>
+      </c>
+      <c r="X38" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="Y38" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="Z38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE38" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="AF38" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG38" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="V33" t="s" s="2">
+      <c r="AH38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI38" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="AJ38" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK38" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="AM38" t="s" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="B39" s="2"/>
+      <c r="C39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="F39" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="W33" t="s" s="2">
+      <c r="G39" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="H39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="I39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="J39" t="s" s="2">
+        <v>365</v>
+      </c>
+      <c r="K39" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="L39" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="M39" t="s" s="2">
+        <v>368</v>
+      </c>
+      <c r="N39" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="O39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="P39" s="2"/>
+      <c r="Q39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="R39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="S39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="T39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="U39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="V39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="W39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="X39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Y39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="Z39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AA39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AB39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AC39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AD39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AE39" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="AF39" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AG39" t="s" s="2">
         <v>79</v>
       </c>
-      <c r="X33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Y33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="Z33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AA33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AB33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AC33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AD33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AE33" t="s" s="2">
-        <v>331</v>
-      </c>
-      <c r="AF33" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AG33" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI33" t="s" s="2">
+      <c r="AH39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AI39" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="AJ33" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AK33" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>337</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>79</v>
+      <c r="AJ39" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="AK39" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="AL39" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="AM39" t="s" s="2">
+        <v>80</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:AM39">
+    <filterColumn colId="6">
+      <customFilters>
+        <customFilter operator="notEqual" val=" "/>
+      </customFilters>
+    </filterColumn>
+    <filterColumn colId="26">
+      <filters blank="true"/>
+    </filterColumn>
+  </autoFilter>
+  <conditionalFormatting sqref="A2:AI38">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$G2&lt;&gt;"Y"</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>$Q2&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/jpcore-r4/main/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.0</t>
+    <t>1.1.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/main/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>1.1.2-dev</t>
+    <t>1.1.2</t>
   </si>
   <si>
     <t>Name</t>

--- a/jpcore-r4/main/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-06-26</t>
+    <t>2023-10-31</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/jpcore-r4/main/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2904" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2904" uniqueCount="431">
   <si>
     <t>Property</t>
   </si>
@@ -372,7 +372,7 @@
 </t>
   </si>
   <si>
-    <t>実行者/実施者または他のシステムによって、この診断レポートに割り当てられた識別子【詳細参照】</t>
+    <t>実行者/実施者または他のシステムによって、この診断レポートに割り当てられた識別子</t>
   </si>
   <si>
     <t>実行者または他のシステムによってこのレポートに割り当てられた識別子。</t>
@@ -720,20 +720,12 @@
     <t>radiology</t>
   </si>
   <si>
-    <t>診断レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、放射線医学など）を分類するコード【詳細参照】</t>
+    <t>診断レポートを作成した臨床分野、部門、または診断サービス（心臓病学、生化学、血液学、放射線医学など）を分類するコード</t>
   </si>
   <si>
     <t>レポートを作成した臨床分野・部門、または診断サービス（CT, US, MRIなど）を分類するコード。 これは、検索、並べ替え、および表示の目的で使用される。【JP-Core仕様】放射線レポートは第1コードとして LP29684-5 を固定値として設定。第2コード以下にDICOMModalityコードを列挙することでレポートの対象検査内容を示す。</t>
   </si>
   <si>
-    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
-  &lt;coding&gt;
-    &lt;system value="http://loinc.org"/&gt;
-    &lt;code value="LP29684-5"/&gt;
-  &lt;/coding&gt;
-&lt;/valueCodeableConcept&gt;</t>
-  </si>
-  <si>
     <t>http://jpfhir.jp/fhir/core/ValueSet/JP_DiagnosticReportCategory_VS</t>
   </si>
   <si>
@@ -755,12 +747,18 @@
     <t>DiagnosticReport.category:radiology.coding.system</t>
   </si>
   <si>
+    <t>http://loinc.org</t>
+  </si>
+  <si>
     <t>DiagnosticReport.category:radiology.coding.version</t>
   </si>
   <si>
     <t>DiagnosticReport.category:radiology.coding.code</t>
   </si>
   <si>
+    <t>LP29684-5</t>
+  </si>
+  <si>
     <t>DiagnosticReport.category:radiology.coding.display</t>
   </si>
   <si>
@@ -801,6 +799,9 @@
   </si>
   <si>
     <t>DiagnosticReport.category:radiology_sub.coding.system</t>
+  </si>
+  <si>
+    <t>http://dicom.nema.org/resources/ontology/DCM</t>
   </si>
   <si>
     <t>DiagnosticReport.category:radiology_sub.coding.version</t>
@@ -831,7 +832,7 @@
 </t>
   </si>
   <si>
-    <t>診断レポートを説明するコードまたは名前【詳細参照】</t>
+    <t>診断レポートを説明するコードまたは名前</t>
   </si>
   <si>
     <t>この診断レポートを表現するコードや名称</t>
@@ -966,7 +967,7 @@
 </t>
   </si>
   <si>
-    <t>診断レポートの対象患者に関する情報【詳細参照】</t>
+    <t>診断レポートの対象患者に関する情報</t>
   </si>
   <si>
     <t>レポートの対象。 必ずでは無いが、通常、これには「患者」が該当する。</t>
@@ -1002,7 +1003,7 @@
 </t>
   </si>
   <si>
-    <t>診断レポートが関係するヘルスケアイベントに関する情報【詳細参照】</t>
+    <t>診断レポートが関係するヘルスケアイベントに関する情報</t>
   </si>
   <si>
     <t>この診断レポートが関するヘルスケアイベント。</t>
@@ -1038,7 +1039,7 @@
 </t>
   </si>
   <si>
-    <t>診断レポートの作成日時【詳細参照】</t>
+    <t>診断レポートの作成日時</t>
   </si>
   <si>
     <t>観測値が関連する時間または期間。レポートの対象が患者である場合、これは通常、読影開始の時間であり、日付/時刻自体のみが提供される。</t>
@@ -1075,7 +1076,7 @@
 </t>
   </si>
   <si>
-    <t>このバージョンの診断レポートが医療者に提供/確定された日時【詳細参照】</t>
+    <t>このバージョンの診断レポートが医療者に提供/確定された日時</t>
   </si>
   <si>
     <t>このバージョンのレポートがプロバイダに提供された日時。通常、レポートがレビューおよび検証された後になる。</t>
@@ -1108,7 +1109,7 @@
 </t>
   </si>
   <si>
-    <t>診断レポートの作成発行に責任をもつ診断サービス/担当者に関する情報【詳細参照】</t>
+    <t>診断レポートの作成発行に責任をもつ診断サービス/担当者に関する情報</t>
   </si>
   <si>
     <t>レポートの発行を担当するもの。</t>
@@ -1141,7 +1142,7 @@
 Reported by</t>
   </si>
   <si>
-    <t>診断レポートの結論と解釈に責任を持つ医療者/組織に関する情報【詳細参照】</t>
+    <t>診断レポートの結論と解釈に責任を持つ医療者/組織に関する情報</t>
   </si>
   <si>
     <t>レポートの結論や読影に関わる医師や組織</t>
@@ -1215,7 +1216,7 @@
 </t>
   </si>
   <si>
-    <t>診断レポートに関連づけれられたDICOM検査画像に関する情報【詳細参照】</t>
+    <t>診断レポートに関連づけれられたDICOM検査画像に関する情報</t>
   </si>
   <si>
     <t>実行された画像検査の完全な詳細に関する1つあるいは複数のリンク。通常、これは DICOM対応モダリティによって実行されるイメージングだが、DICOMであることが必須ではない。完全に有効な PACS ビューアは、この情報を使用してソース イメージのビューを提供できる。</t>
@@ -1239,7 +1240,7 @@
 </t>
   </si>
   <si>
-    <t>診断レポートに関連づけられたメディアに関する情報【詳細参照】</t>
+    <t>診断レポートに関連づけられたメディアに関する情報</t>
   </si>
   <si>
     <t>このレポートに関連付けられているキーイメージの一覧。</t>
@@ -1346,7 +1347,7 @@
     <t>DiagnosticReport.conclusionCode</t>
   </si>
   <si>
-    <t>診断レポートの要約結論（解釈、インプレッション）を表すコード【詳細参照】</t>
+    <t>診断レポートの要約結論（解釈、インプレッション）を表すコード</t>
   </si>
   <si>
     <t>診断レポートの要約の結論 (interpretation/impression) を表す 1 つ以上のコード。</t>
@@ -1373,7 +1374,7 @@
 </t>
   </si>
   <si>
-    <t>診断サービス/担当者によって発行された診断レポート全体のコンテンツ（例えばPDFファイルなど）【詳細参照】</t>
+    <t>診断サービス/担当者によって発行された診断レポート全体のコンテンツ（例えばPDFファイルなど）</t>
   </si>
   <si>
     <t>診断サービスによって発行された結果全体のリッチ テキスト表現。複数の形式は許可されるが、意味的に等価である必要がある。</t>
@@ -4551,7 +4552,7 @@
         <v>41</v>
       </c>
       <c r="S25" t="s" s="2">
-        <v>224</v>
+        <v>41</v>
       </c>
       <c r="T25" t="s" s="2">
         <v>41</v>
@@ -4570,7 +4571,7 @@
       </c>
       <c r="Y25" s="2"/>
       <c r="Z25" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>41</v>
@@ -4617,7 +4618,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B26" t="s" s="2">
         <v>155</v>
@@ -4729,7 +4730,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B27" t="s" s="2">
         <v>161</v>
@@ -4843,7 +4844,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B28" t="s" s="2">
         <v>166</v>
@@ -4959,7 +4960,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B29" t="s" s="2">
         <v>175</v>
@@ -5071,7 +5072,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>176</v>
@@ -5185,7 +5186,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>177</v>
@@ -5230,7 +5231,7 @@
       </c>
       <c r="Q31" s="2"/>
       <c r="R31" t="s" s="2">
-        <v>41</v>
+        <v>231</v>
       </c>
       <c r="S31" t="s" s="2">
         <v>41</v>
@@ -5458,7 +5459,7 @@
       </c>
       <c r="Q33" s="2"/>
       <c r="R33" t="s" s="2">
-        <v>41</v>
+        <v>234</v>
       </c>
       <c r="S33" t="s" s="2">
         <v>41</v>
@@ -5529,7 +5530,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>197</v>
@@ -5643,7 +5644,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>203</v>
@@ -5759,7 +5760,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>212</v>
@@ -5875,13 +5876,13 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>141</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D37" t="s" s="2">
         <v>142</v>
@@ -5906,10 +5907,10 @@
         <v>143</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="N37" t="s" s="2">
         <v>146</v>
@@ -5942,7 +5943,7 @@
       </c>
       <c r="Y37" s="2"/>
       <c r="Z37" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="AA37" t="s" s="2">
         <v>41</v>
@@ -5989,7 +5990,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>155</v>
@@ -6101,7 +6102,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>161</v>
@@ -6215,7 +6216,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>166</v>
@@ -6331,7 +6332,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>175</v>
@@ -6443,7 +6444,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>176</v>
@@ -6557,7 +6558,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>177</v>
@@ -6602,7 +6603,7 @@
       </c>
       <c r="Q43" s="2"/>
       <c r="R43" t="s" s="2">
-        <v>41</v>
+        <v>249</v>
       </c>
       <c r="S43" t="s" s="2">
         <v>41</v>
@@ -6673,7 +6674,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B44" t="s" s="2">
         <v>184</v>
@@ -6787,7 +6788,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B45" t="s" s="2">
         <v>191</v>
@@ -6816,10 +6817,10 @@
         <v>71</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" t="s" s="2">
@@ -6901,7 +6902,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="B46" t="s" s="2">
         <v>197</v>
@@ -6930,10 +6931,10 @@
         <v>156</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
@@ -7015,7 +7016,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B47" t="s" s="2">
         <v>203</v>
@@ -7131,7 +7132,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>212</v>
@@ -7247,14 +7248,14 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" t="s" s="2">
@@ -7276,13 +7277,13 @@
         <v>143</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="O49" s="2"/>
       <c r="P49" t="s" s="2">
@@ -7312,7 +7313,7 @@
       </c>
       <c r="Y49" s="2"/>
       <c r="Z49" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AA49" t="s" s="2">
         <v>41</v>
@@ -7330,7 +7331,7 @@
         <v>41</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>51</v>
@@ -7345,24 +7346,24 @@
         <v>63</v>
       </c>
       <c r="AK49" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7471,10 +7472,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7585,10 +7586,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7660,7 +7661,7 @@
         <v>41</v>
       </c>
       <c r="AB52" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AC52" s="2"/>
       <c r="AD52" t="s" s="2">
@@ -7699,13 +7700,13 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="B53" t="s" s="2">
         <v>269</v>
       </c>
-      <c r="B53" t="s" s="2">
-        <v>267</v>
-      </c>
       <c r="C53" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D53" t="s" s="2">
         <v>41</v>
@@ -7730,13 +7731,13 @@
         <v>167</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="O53" t="s" s="2">
         <v>171</v>
@@ -7817,10 +7818,10 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
@@ -7929,10 +7930,10 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8043,10 +8044,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8072,10 +8073,10 @@
         <v>65</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="N56" t="s" s="2">
         <v>179</v>
@@ -8088,7 +8089,7 @@
       </c>
       <c r="Q56" s="2"/>
       <c r="R56" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="S56" t="s" s="2">
         <v>41</v>
@@ -8159,10 +8160,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8273,10 +8274,10 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
@@ -8302,10 +8303,10 @@
         <v>71</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N58" s="2"/>
       <c r="O58" t="s" s="2">
@@ -8316,7 +8317,7 @@
       </c>
       <c r="Q58" s="2"/>
       <c r="R58" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="S58" t="s" s="2">
         <v>41</v>
@@ -8387,10 +8388,10 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
@@ -8416,10 +8417,10 @@
         <v>156</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="N59" s="2"/>
       <c r="O59" t="s" s="2">
@@ -8433,7 +8434,7 @@
         <v>41</v>
       </c>
       <c r="S59" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="T59" t="s" s="2">
         <v>41</v>
@@ -8501,10 +8502,10 @@
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8617,10 +8618,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8733,14 +8734,14 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" t="s" s="2">
@@ -8759,19 +8760,19 @@
         <v>52</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="O62" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P62" t="s" s="2">
         <v>41</v>
@@ -8820,7 +8821,7 @@
         <v>41</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>39</v>
@@ -8835,28 +8836,28 @@
         <v>63</v>
       </c>
       <c r="AK62" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AM62" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AN62" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" t="s" s="2">
@@ -8875,19 +8876,19 @@
         <v>52</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="O63" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="P63" t="s" s="2">
         <v>41</v>
@@ -8936,7 +8937,7 @@
         <v>41</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>39</v>
@@ -8951,28 +8952,28 @@
         <v>63</v>
       </c>
       <c r="AK63" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AM63" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="AN63" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" t="s" s="2">
@@ -8991,19 +8992,19 @@
         <v>52</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="N64" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="O64" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="P64" t="s" s="2">
         <v>41</v>
@@ -9052,7 +9053,7 @@
         <v>41</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>39</v>
@@ -9067,28 +9068,28 @@
         <v>63</v>
       </c>
       <c r="AK64" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AM64" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AN64" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" t="s" s="2">
@@ -9107,19 +9108,19 @@
         <v>52</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="N65" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="O65" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="P65" t="s" s="2">
         <v>41</v>
@@ -9168,7 +9169,7 @@
         <v>41</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>39</v>
@@ -9186,25 +9187,25 @@
         <v>41</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AM65" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="AN65" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9223,19 +9224,19 @@
         <v>52</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="N66" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="O66" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="P66" t="s" s="2">
         <v>41</v>
@@ -9284,7 +9285,7 @@
         <v>41</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>39</v>
@@ -9299,28 +9300,28 @@
         <v>63</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AL66" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="AM66" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AN66" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" t="s" s="2">
@@ -9339,19 +9340,19 @@
         <v>52</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="N67" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="O67" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="P67" t="s" s="2">
         <v>41</v>
@@ -9400,7 +9401,7 @@
         <v>41</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>39</v>
@@ -9415,24 +9416,24 @@
         <v>63</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="AL67" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="AM67" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9455,19 +9456,19 @@
         <v>41</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="O68" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="P68" t="s" s="2">
         <v>41</v>
@@ -9516,7 +9517,7 @@
         <v>41</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>39</v>
@@ -9534,10 +9535,10 @@
         <v>41</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="AM68" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="AN68" t="s" s="2">
         <v>41</v>
@@ -9545,14 +9546,14 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" t="s" s="2">
@@ -9571,19 +9572,19 @@
         <v>41</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="N69" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="O69" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="P69" t="s" s="2">
         <v>41</v>
@@ -9632,7 +9633,7 @@
         <v>41</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>39</v>
@@ -9650,10 +9651,10 @@
         <v>41</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AM69" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AN69" t="s" s="2">
         <v>41</v>
@@ -9661,10 +9662,10 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9687,16 +9688,16 @@
         <v>41</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="N70" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="O70" s="2"/>
       <c r="P70" t="s" s="2">
@@ -9746,7 +9747,7 @@
         <v>41</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>39</v>
@@ -9767,7 +9768,7 @@
         <v>41</v>
       </c>
       <c r="AM70" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AN70" t="s" s="2">
         <v>41</v>
@@ -9775,14 +9776,14 @@
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" t="s" s="2">
@@ -9801,19 +9802,19 @@
         <v>52</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>41</v>
@@ -9862,7 +9863,7 @@
         <v>41</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>39</v>
@@ -9880,10 +9881,10 @@
         <v>41</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="AM71" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="AN71" t="s" s="2">
         <v>41</v>
@@ -9891,10 +9892,10 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10003,10 +10004,10 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10117,14 +10118,14 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="E74" s="2"/>
       <c r="F74" t="s" s="2">
@@ -10146,10 +10147,10 @@
         <v>97</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="N74" t="s" s="2">
         <v>100</v>
@@ -10204,7 +10205,7 @@
         <v>41</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>39</v>
@@ -10233,10 +10234,10 @@
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10262,16 +10263,16 @@
         <v>156</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="P75" t="s" s="2">
         <v>41</v>
@@ -10320,7 +10321,7 @@
         <v>41</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>39</v>
@@ -10341,7 +10342,7 @@
         <v>41</v>
       </c>
       <c r="AM75" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="AN75" t="s" s="2">
         <v>41</v>
@@ -10349,10 +10350,10 @@
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10375,16 +10376,16 @@
         <v>52</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10434,7 +10435,7 @@
         <v>41</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>51</v>
@@ -10455,7 +10456,7 @@
         <v>41</v>
       </c>
       <c r="AM76" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AN76" t="s" s="2">
         <v>41</v>
@@ -10463,14 +10464,14 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" t="s" s="2">
@@ -10492,16 +10493,16 @@
         <v>156</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="P77" t="s" s="2">
         <v>41</v>
@@ -10550,7 +10551,7 @@
         <v>41</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>39</v>
@@ -10568,10 +10569,10 @@
         <v>41</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AM77" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AN77" t="s" s="2">
         <v>41</v>
@@ -10579,10 +10580,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10608,13 +10609,13 @@
         <v>143</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="N78" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="O78" s="2"/>
       <c r="P78" t="s" s="2">
@@ -10643,10 +10644,10 @@
         <v>147</v>
       </c>
       <c r="Y78" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="Z78" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AA78" t="s" s="2">
         <v>41</v>
@@ -10664,7 +10665,7 @@
         <v>41</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>39</v>
@@ -10682,10 +10683,10 @@
         <v>41</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AM78" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="AN78" t="s" s="2">
         <v>41</v>
@@ -10693,10 +10694,10 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
@@ -10719,19 +10720,19 @@
         <v>41</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="O79" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="P79" t="s" s="2">
         <v>41</v>
@@ -10780,7 +10781,7 @@
         <v>41</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>39</v>
@@ -10798,10 +10799,10 @@
         <v>41</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="AM79" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AN79" t="s" s="2">
         <v>41</v>

--- a/jpcore-r4/main/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -5670,7 +5670,7 @@
       </c>
       <c r="E34" s="2"/>
       <c r="F34" t="s" s="2">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="G34" t="s" s="2">
         <v>91</v>

--- a/jpcore-r4/main/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -281,7 +281,7 @@
   </si>
   <si>
     <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
+dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidもmeta.lastupdatedも持ってはならない。 / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Event</t>

--- a/jpcore-r4/main/StructureDefinition-jp-diagnosticreport-radiology.xlsx
+++ b/jpcore-r4/main/StructureDefinition-jp-diagnosticreport-radiology.xlsx
@@ -72,7 +72,7 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>FHIR Japanese implementation research working group in Japan Association of Medical Informatics (JAMI) (http://jpfhir.jp, office@hlfhir.jp)</t>
   </si>
   <si>
     <t>Jurisdiction</t>
